--- a/Documentação/Excel/analytics.xlsx
+++ b/Documentação/Excel/analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proj.DevBand\DevBand\Documentação\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DevBand\Documentação\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACEC55D-CD53-4514-AF5F-59839FEF1910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EDBFF-2C43-405D-BBD9-A8ABD37F5AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7343450B-E369-42B6-B08A-508B667F7553}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7343450B-E369-42B6-B08A-508B667F7553}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +204,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2700,7 +2709,7 @@
   <dimension ref="A2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,10 +2790,10 @@
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="7"/>
       <c r="P6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2808,10 +2817,10 @@
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -2839,11 +2848,11 @@
         <f>_xlfn.QUARTILE.EXC(B3:B32,1)</f>
         <v>21</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="11">
         <f>AVERAGE(B3:B32)</f>
         <v>23.433333333333334</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <f>_xlfn.QUARTILE.EXC(B3:B32,2)</f>
         <v>24</v>
       </c>
@@ -2908,10 +2917,10 @@
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="4" t="s">
         <v>11</v>
       </c>
@@ -2935,10 +2944,10 @@
       <c r="M12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -2962,19 +2971,19 @@
         <f>MIN(C3:C32)</f>
         <v>35</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="12">
         <f>_xlfn.QUARTILE.EXC(C3:C32,1)</f>
         <v>41.25</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>AVERAGE(C3:C32)</f>
         <v>47.7</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <f>_xlfn.QUARTILE.EXC(C3:C32,2)</f>
         <v>47.5</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="12">
         <f>_xlfn.QUARTILE.EXC(C3:C32,3)</f>
         <v>55.25</v>
       </c>

--- a/Documentação/Excel/analytics.xlsx
+++ b/Documentação/Excel/analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DevBand\Documentação\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3177b429e6917426/Documentos/DevBand/Documentação/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EDBFF-2C43-405D-BBD9-A8ABD37F5AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{CD4EDBFF-2C43-405D-BBD9-A8ABD37F5AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DE0842B-F8FC-49AE-BFE3-BB483743A1A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7343450B-E369-42B6-B08A-508B667F7553}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +93,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +151,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -174,17 +200,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,6 +209,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -204,10 +227,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -306,7 +338,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188109E-2"/>
+          <c:y val="4.2083333333333355E-2"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2706,498 +2748,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862F4724-5F5E-4153-A190-ACA7C0710A59}">
-  <dimension ref="A2:Q32"/>
+  <dimension ref="A2:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="25.5703125" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>60</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="X5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>56</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="4" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="X6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>50</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>51</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="14">
         <f>MIN(B3:B32)</f>
         <v>20</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="12">
         <f>_xlfn.QUARTILE.EXC(B3:B32,1)</f>
         <v>21</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="4">
         <f>AVERAGE(B3:B32)</f>
         <v>23.433333333333334</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="3">
         <f>_xlfn.QUARTILE.EXC(B3:B32,2)</f>
         <v>24</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <f>_xlfn.QUARTILE.EXC(B3:B32,3)</f>
         <v>26</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="2">
         <f>MAX(B3:B32)</f>
         <v>27</v>
       </c>
+      <c r="X8" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>42</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="X9" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>48</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="X10" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>27</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>55</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="4" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="X11" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>26</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>39</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X12" s="10">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>42</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10">
         <v>45</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="14">
         <f>MIN(C3:C32)</f>
         <v>35</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="13">
         <f>_xlfn.QUARTILE.EXC(C3:C32,1)</f>
         <v>41.25</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <f>AVERAGE(C3:C32)</f>
         <v>47.7</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <f>_xlfn.QUARTILE.EXC(C3:C32,2)</f>
         <v>47.5</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="5">
         <f>_xlfn.QUARTILE.EXC(C3:C32,3)</f>
         <v>55.25</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="2">
         <f>MAX(C3:C32)</f>
         <v>60</v>
       </c>
+      <c r="X13" s="10">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>59</v>
       </c>
+      <c r="X14" s="10">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>55</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>22</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>43</v>
       </c>
+      <c r="X15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>39</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="10">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>38</v>
       </c>
+      <c r="X16" s="10">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>57</v>
       </c>
+      <c r="X17" s="10">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>59</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="11">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="11">
         <v>36</v>
       </c>
+      <c r="X18" s="10">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>22</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>43</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="11">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="11">
         <v>48</v>
       </c>
+      <c r="X19" s="10">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="11">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="11">
         <v>45</v>
       </c>
+      <c r="X20" s="10">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>24</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>57</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="11">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="11">
         <v>47</v>
       </c>
+      <c r="X21" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>26</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="11">
         <v>52</v>
       </c>
+      <c r="X22" s="11">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>48</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="11">
         <v>24</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="11">
         <v>42</v>
       </c>
+      <c r="X23" s="11">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>45</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="11">
         <v>22</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="11">
         <v>60</v>
       </c>
+      <c r="X24" s="11">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>47</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="11">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="11">
         <v>59</v>
       </c>
+      <c r="X25" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>52</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="11">
         <v>27</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="11">
         <v>39</v>
       </c>
+      <c r="X26" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>42</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="11">
         <v>27</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="11">
         <v>49</v>
       </c>
+      <c r="X27" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>22</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="11">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="11">
         <v>55</v>
       </c>
+      <c r="X28" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>59</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="11">
         <v>20</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="11">
         <v>45</v>
       </c>
+      <c r="X29" s="11">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>27</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>39</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="11">
         <v>22</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="11">
         <v>58</v>
       </c>
+      <c r="X30" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>27</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>49</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="11">
         <v>24</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="11">
         <v>36</v>
       </c>
+      <c r="X31" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>26</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>55</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="11">
         <v>26</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="11">
+        <v>37</v>
+      </c>
+      <c r="X32" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>20</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="24:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="X33" s="11">
+        <v>28</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>22</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="24:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="X34" s="11">
+        <v>29</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>24</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="24:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="X35" s="11">
+        <v>30</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>26</v>
+      </c>
+      <c r="Z35" s="11">
         <v>37</v>
       </c>
     </row>
